--- a/020_Data regression prediction based on BP neural network - predicting new data/预测结果.xlsx
+++ b/020_Data regression prediction based on BP neural network - predicting new data/预测结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Bilibili视频程序\020_基于BP神经网络的数据回归预测-预测新数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\GitHub项目程序\中文版本\020_基于BP神经网络的数据回归预测-预测新数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AC2A17-CDDF-4C58-AF69-8AA627748B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70EAB34-F817-4913-A0CF-C76F9E7023CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{B003FBEF-2832-4059-B898-557EE0ADADA0}"/>
+    <workbookView xWindow="4290" yWindow="1560" windowWidth="19200" windowHeight="11170" xr2:uid="{B003FBEF-2832-4059-B898-557EE0ADADA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -403,57 +402,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>35.131713316376775</v>
+        <v>34.973489275110438</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>39.126058756345017</v>
+        <v>40.638899258189845</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>39.762384141478563</v>
+        <v>41.69715590037071</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>40.016273821917963</v>
+        <v>42.143529676800085</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>28.861726896085699</v>
+        <v>26.257512368767443</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>29.317724281991211</v>
+        <v>25.639203030627129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>38.692290170870152</v>
+        <v>38.997475802023288</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>34.926666042986525</v>
+        <v>36.670347194065116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>35.944368320958603</v>
+        <v>34.230495268587916</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>37.898021109209552</v>
+        <v>37.698789617894214</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>29.550877437682537</v>
+        <v>26.148514567465352</v>
       </c>
     </row>
   </sheetData>
